--- a/server/files/users.xlsx
+++ b/server/files/users.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Data: 2022-9-19</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Data: 2022-9-22</t>
   </si>
   <si>
     <t>Darbuotojas</t>
@@ -28,40 +28,16 @@
     <t>Išdirbta</t>
   </si>
   <si>
-    <t>Tomas Tomaitis</t>
-  </si>
-  <si>
-    <t>13:17</t>
-  </si>
-  <si>
-    <t>13:19</t>
-  </si>
-  <si>
-    <t>00:01:36</t>
-  </si>
-  <si>
-    <t>Jonas Jonaitis</t>
-  </si>
-  <si>
-    <t>13:20</t>
-  </si>
-  <si>
-    <t>14:56</t>
-  </si>
-  <si>
-    <t>01:36:36</t>
-  </si>
-  <si>
     <t>Simas Simaitis</t>
   </si>
   <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>15:01</t>
-  </si>
-  <si>
-    <t>00:01:08</t>
+    <t>12:32</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>00:28:00</t>
   </si>
 </sst>
 </file>
@@ -442,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -482,34 +458,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
